--- a/任务进行状态表.xlsx
+++ b/任务进行状态表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>工作步骤</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,52 +37,60 @@
     <t>已完成</t>
   </si>
   <si>
+    <t>进行中</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.用手写体数字数据预训练CNN网络  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.生成正类样本CA图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.生成负类样本CA图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开始</t>
+  </si>
+  <si>
+    <t>6.从预训练好的网络中抽取正类样本特征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.2从预训练好的网络中抽取负类样本特征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.训练预测抗菌肽的分类器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.从swissprot数据库中下载负样本（查询条件：uniprot:NOT keyword:antimicrobial length:[5 TO 100] reviewed:yes）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1. 从AMPD数据库中获取正样本共 1378条肽链。共分6类，cut-off到0.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进行中</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.用手写体数字数据预训练CNN网络  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.生成正类样本CA图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.生成负类样本CA图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未开始</t>
-  </si>
-  <si>
-    <t>2.2 从中随机选择1378个样本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.从预训练好的网络中抽取正类样本特征</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.2从预训练好的网络中抽取负类样本特征</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.训练预测抗菌肽的分类器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.从swissprot数据库中下载负样本（查询条件：uniprot:NOT keyword:antimicrobial length:[5 TO 70] reviewed:yes）</t>
+    <t>2.1 对下载的负样本使用cd-hit软件把序列cut-off到0.5,得到10194条序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2 从AMPD数据库获取所有的注释了抗菌活性的抗菌肽共2806个样本，并cut-off到0.5，共得到800个抗菌肽样本（正样本集）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2 从中随机选择800个样本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -108,12 +116,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -122,28 +139,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FFC00000"/>
@@ -168,7 +181,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -430,18 +443,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="71.75" customWidth="1"/>
+    <col min="1" max="1" width="71.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,92 +462,108 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="27" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2" ht="14.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
+      <c r="B12" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B27">
+  <conditionalFormatting sqref="B2:B29">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="进行中">
       <formula>NOT(ISERROR(SEARCH("进行中",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B23">
+  <conditionalFormatting sqref="B2:B25">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="未开始">
       <formula>NOT(ISERROR(SEARCH("未开始",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B29">
       <formula1>"已完成,进行中,未开始"</formula1>
     </dataValidation>
   </dataValidations>
